--- a/結合テスト/テストケース/ものづくり結合テスト_アプリ_iOS.xlsx
+++ b/結合テスト/テストケース/ものづくり結合テスト_アプリ_iOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itcc-admin\Desktop\结合テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3287D-3D09-44FF-9EF5-33608C1D3907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A3C394-E288-4176-B678-50B606065A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="667" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="667" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一覧_x001c_" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1.アカウント'!$A$1:$L$43</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'2.ホーム'!$A$1:$L$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'2.ホーム'!$A$1:$L$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'3.店舗詳細'!$A$1:$L$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'4.クーポン'!$A$1:$L$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'5.ブックマーク'!$A$1:$L$7</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="484">
   <si>
     <t>アプリ</t>
   </si>
@@ -1279,10 +1279,6 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>2.4.1</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
     <t>店舗が登録されている</t>
     <rPh sb="0" eb="2">
       <t>テンポ</t>
@@ -1358,10 +1354,6 @@
   </si>
   <si>
     <t>3.10.1</t>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>1.「ブックマークに追加」ボタン</t>
     <phoneticPr fontId="13"/>
   </si>
   <si>
@@ -3085,42 +3077,9 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t>2.4.2</t>
-  </si>
-  <si>
     <t>ブックマークに店舗がある</t>
     <rPh sb="7" eb="9">
       <t>テンポ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>1.ログインする
-2.「商圏」プルダウンをタッブ
-3．推奨店舗の「お気に入り取り消し」ボタンをタッブ</t>
-    <rPh sb="34" eb="35">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>ケ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>1.ログインする
-2.「商圏」プルダウンをタッブ
-3．推奨店舗の「お気に入り」ボタンをタッブ</t>
-    <rPh sb="34" eb="35">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>イ</t>
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
@@ -3234,66 +3193,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ジュウテン</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「♥」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ボタンが枠線のみに変更されること
-2.マイページのブックマークリストに削除されること</t>
-    </r>
-    <rPh sb="0" eb="47">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「♥」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ 明朝"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ボタンが赤色に充填されること
-2.マイページのブックマークリストに登録されていること</t>
-    </r>
-    <rPh sb="38" eb="40">
-      <t>トウロク</t>
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
@@ -3979,7 +3878,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -4580,54 +4479,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -4660,7 +4511,7 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4816,9 +4667,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4828,9 +4676,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4852,24 +4697,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4900,88 +4727,69 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4997,18 +4805,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5045,63 +4902,12 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5114,16 +4920,25 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5132,14 +4947,17 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5476,127 +5294,127 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="93" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="100">
+      <c r="D4" s="84">
         <v>6</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="105"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="88"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="92"/>
-      <c r="B5" s="99"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="93"/>
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="106"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="89"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="92"/>
-      <c r="B6" s="99" t="s">
+      <c r="A6" s="97"/>
+      <c r="B6" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="106"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="89"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="92"/>
-      <c r="B7" s="99"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="106"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="89"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="92"/>
-      <c r="B8" s="99"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="93"/>
       <c r="C8" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="106"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="89"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="92"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="106"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="89"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="92"/>
-      <c r="B10" s="99"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="93"/>
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="106"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="89"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="92"/>
-      <c r="B11" s="99"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="106"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="89"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="92"/>
-      <c r="B12" s="99" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="93" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="106"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="89"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="92"/>
-      <c r="B13" s="99"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="93"/>
       <c r="C13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="106"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="89"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="92"/>
-      <c r="B14" s="99"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="93"/>
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="107"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="91"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="93" t="s">
+      <c r="A15" s="100" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="23" t="s">
@@ -5605,60 +5423,60 @@
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="103">
+      <c r="D15" s="87">
         <v>3</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="108"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="93"/>
-      <c r="B16" s="99" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="93" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="59" t="s">
         <v>244</v>
       </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="108"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="83"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="93"/>
-      <c r="B17" s="99"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="93"/>
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="108"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="93"/>
+      <c r="A18" s="100"/>
       <c r="B18" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="108"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="83"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="93"/>
+      <c r="A19" s="100"/>
       <c r="B19" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="108"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="83"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="23" t="s">
@@ -5667,136 +5485,136 @@
       <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="103">
+      <c r="D20" s="87">
         <v>6</v>
       </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="108"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="83"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="92"/>
-      <c r="B21" s="99" t="s">
+      <c r="A21" s="97"/>
+      <c r="B21" s="93" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="108"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="83"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="92"/>
-      <c r="B22" s="99"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="93"/>
       <c r="C22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="108"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="83"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="92"/>
-      <c r="B23" s="99"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="93"/>
       <c r="C23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="108"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="83"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="92"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="23" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="108"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="83"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="92"/>
+      <c r="A25" s="97"/>
       <c r="B25" s="23" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="108"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="83"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="92"/>
+      <c r="A26" s="97"/>
       <c r="B26" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="108"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="83"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="92"/>
+      <c r="A27" s="97"/>
       <c r="B27" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="108"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="83"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="92"/>
+      <c r="A28" s="97"/>
       <c r="B28" s="23" t="s">
         <v>41</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="103"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="108"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="83"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="92"/>
+      <c r="A29" s="97"/>
       <c r="B29" s="23" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="108"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="83"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="92"/>
+      <c r="A30" s="97"/>
       <c r="B30" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="108"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="83"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="92"/>
+      <c r="A31" s="97"/>
       <c r="B31" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="108"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="83"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="97" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -5805,76 +5623,76 @@
       <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="103">
+      <c r="D32" s="87">
         <v>3</v>
       </c>
-      <c r="E32" s="103"/>
-      <c r="F32" s="108"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="83"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="92"/>
+      <c r="A33" s="97"/>
       <c r="B33" s="23" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="108"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="83"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="92"/>
+      <c r="A34" s="97"/>
       <c r="B34" s="23" t="s">
         <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="108"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="83"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="92"/>
+      <c r="A35" s="97"/>
       <c r="B35" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>418</v>
-      </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="108"/>
+        <v>416</v>
+      </c>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="83"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="92" t="s">
+      <c r="A36" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="95" t="s">
         <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="100">
+      <c r="D36" s="84">
         <v>1</v>
       </c>
-      <c r="E36" s="100"/>
-      <c r="F36" s="105"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="88"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="92"/>
-      <c r="B37" s="98"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="107"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="91"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="92" t="s">
+      <c r="A38" s="97" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="23" t="s">
@@ -5883,67 +5701,67 @@
       <c r="C38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="100">
+      <c r="D38" s="84">
         <v>3</v>
       </c>
-      <c r="E38" s="100"/>
-      <c r="F38" s="105"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="88"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="92"/>
-      <c r="B39" s="99" t="s">
+      <c r="A39" s="97"/>
+      <c r="B39" s="93" t="s">
         <v>59</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101"/>
-      <c r="F39" s="106"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="89"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="92"/>
-      <c r="B40" s="99"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="93"/>
       <c r="C40" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101"/>
-      <c r="F40" s="106"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="89"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="92"/>
-      <c r="B41" s="99" t="s">
+      <c r="A41" s="97"/>
+      <c r="B41" s="93" t="s">
         <v>62</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="106"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="89"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="92"/>
-      <c r="B42" s="99"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="93"/>
       <c r="C42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="101"/>
-      <c r="E42" s="101"/>
-      <c r="F42" s="106"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="89"/>
     </row>
     <row r="43" spans="1:6" ht="20.399999999999999" thickBot="1">
-      <c r="A43" s="94"/>
+      <c r="A43" s="98"/>
       <c r="B43" s="25" t="s">
         <v>65</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="110"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="90"/>
     </row>
     <row r="44" spans="1:6">
       <c r="D44" s="27"/>
@@ -5992,45 +5810,45 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="95" t="s">
+      <c r="A49" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="99" t="s">
+      <c r="B49" s="93" t="s">
         <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D49" s="103">
+      <c r="D49" s="87">
         <v>2</v>
       </c>
-      <c r="E49" s="103"/>
-      <c r="F49" s="108"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="83"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="95"/>
-      <c r="B50" s="99"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="93"/>
       <c r="C50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="108"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="83"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="95"/>
+      <c r="A51" s="99"/>
       <c r="B51" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="108"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="83"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="95" t="s">
+      <c r="A52" s="99" t="s">
         <v>67</v>
       </c>
       <c r="B52" s="23" t="s">
@@ -6039,119 +5857,119 @@
       <c r="C52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="103">
+      <c r="D52" s="87">
         <v>6</v>
       </c>
-      <c r="E52" s="103"/>
-      <c r="F52" s="108"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="83"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="95"/>
-      <c r="B53" s="99" t="s">
+      <c r="A53" s="99"/>
+      <c r="B53" s="93" t="s">
         <v>72</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="103"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="108"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="83"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="95"/>
-      <c r="B54" s="99"/>
+      <c r="A54" s="99"/>
+      <c r="B54" s="93"/>
       <c r="C54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="103"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="108"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="83"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="95"/>
-      <c r="B55" s="99" t="s">
+      <c r="A55" s="99"/>
+      <c r="B55" s="93" t="s">
         <v>75</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="103"/>
-      <c r="E55" s="103"/>
-      <c r="F55" s="108"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="83"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="95"/>
-      <c r="B56" s="99"/>
+      <c r="A56" s="99"/>
+      <c r="B56" s="93"/>
       <c r="C56" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="103"/>
-      <c r="E56" s="103"/>
-      <c r="F56" s="108"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="83"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="95"/>
-      <c r="B57" s="99"/>
+      <c r="A57" s="99"/>
+      <c r="B57" s="93"/>
       <c r="C57" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="108"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="83"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="95"/>
-      <c r="B58" s="99"/>
+      <c r="A58" s="99"/>
+      <c r="B58" s="93"/>
       <c r="C58" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D58" s="103"/>
-      <c r="E58" s="103"/>
-      <c r="F58" s="108"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="83"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="95"/>
-      <c r="B59" s="99"/>
+      <c r="A59" s="99"/>
+      <c r="B59" s="93"/>
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="108"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="83"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="95"/>
+      <c r="A60" s="99"/>
       <c r="B60" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="108"/>
+      <c r="D60" s="87"/>
+      <c r="E60" s="87"/>
+      <c r="F60" s="83"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="95"/>
-      <c r="B61" s="99" t="s">
+      <c r="A61" s="99"/>
+      <c r="B61" s="93" t="s">
         <v>82</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D61" s="103"/>
-      <c r="E61" s="103"/>
-      <c r="F61" s="108"/>
+      <c r="D61" s="87"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="83"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="95"/>
-      <c r="B62" s="99"/>
+      <c r="A62" s="99"/>
+      <c r="B62" s="93"/>
       <c r="C62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D62" s="103"/>
-      <c r="E62" s="103"/>
-      <c r="F62" s="108"/>
+      <c r="D62" s="87"/>
+      <c r="E62" s="87"/>
+      <c r="F62" s="83"/>
     </row>
     <row r="63" spans="1:6" ht="20.399999999999999" thickBot="1">
       <c r="A63" s="32" t="s">
@@ -6211,179 +6029,179 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="96" t="s">
+      <c r="A69" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="99" t="s">
+      <c r="B69" s="93" t="s">
         <v>11</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D69" s="103">
+      <c r="D69" s="87">
         <v>3</v>
       </c>
-      <c r="E69" s="103"/>
-      <c r="F69" s="108"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="83"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="96"/>
-      <c r="B70" s="99"/>
+      <c r="A70" s="94"/>
+      <c r="B70" s="93"/>
       <c r="C70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D70" s="103"/>
-      <c r="E70" s="103"/>
-      <c r="F70" s="108"/>
+      <c r="D70" s="87"/>
+      <c r="E70" s="87"/>
+      <c r="F70" s="83"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="96"/>
+      <c r="A71" s="94"/>
       <c r="B71" s="23" t="s">
         <v>65</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" s="103"/>
-      <c r="E71" s="103"/>
-      <c r="F71" s="108"/>
+      <c r="D71" s="87"/>
+      <c r="E71" s="87"/>
+      <c r="F71" s="83"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="96"/>
+      <c r="A72" s="94"/>
       <c r="B72" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D72" s="103"/>
-      <c r="E72" s="103"/>
-      <c r="F72" s="108"/>
+      <c r="D72" s="87"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="83"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="96" t="s">
+      <c r="A73" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B73" s="99" t="s">
+      <c r="B73" s="93" t="s">
         <v>88</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="103">
+      <c r="D73" s="87">
         <v>4</v>
       </c>
-      <c r="E73" s="103"/>
-      <c r="F73" s="108"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="83"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="96"/>
-      <c r="B74" s="99"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="93"/>
       <c r="C74" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D74" s="103"/>
-      <c r="E74" s="103"/>
-      <c r="F74" s="108"/>
+      <c r="D74" s="87"/>
+      <c r="E74" s="87"/>
+      <c r="F74" s="83"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="96"/>
-      <c r="B75" s="99"/>
+      <c r="A75" s="94"/>
+      <c r="B75" s="93"/>
       <c r="C75" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="103"/>
-      <c r="E75" s="103"/>
-      <c r="F75" s="108"/>
+      <c r="D75" s="87"/>
+      <c r="E75" s="87"/>
+      <c r="F75" s="83"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="96"/>
-      <c r="B76" s="99"/>
+      <c r="A76" s="94"/>
+      <c r="B76" s="93"/>
       <c r="C76" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D76" s="103"/>
-      <c r="E76" s="103"/>
-      <c r="F76" s="108"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="83"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="96"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="108"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
+      <c r="F77" s="83"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="96"/>
-      <c r="B78" s="99" t="s">
+      <c r="A78" s="94"/>
+      <c r="B78" s="93" t="s">
         <v>95</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D78" s="103"/>
-      <c r="E78" s="103"/>
-      <c r="F78" s="108"/>
+      <c r="D78" s="87"/>
+      <c r="E78" s="87"/>
+      <c r="F78" s="83"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="96"/>
-      <c r="B79" s="99"/>
+      <c r="A79" s="94"/>
+      <c r="B79" s="93"/>
       <c r="C79" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="103"/>
-      <c r="E79" s="103"/>
-      <c r="F79" s="108"/>
+      <c r="D79" s="87"/>
+      <c r="E79" s="87"/>
+      <c r="F79" s="83"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="96"/>
-      <c r="B80" s="99"/>
+      <c r="A80" s="94"/>
+      <c r="B80" s="93"/>
       <c r="C80" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D80" s="103"/>
-      <c r="E80" s="103"/>
-      <c r="F80" s="108"/>
+      <c r="D80" s="87"/>
+      <c r="E80" s="87"/>
+      <c r="F80" s="83"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="96"/>
-      <c r="B81" s="99"/>
+      <c r="A81" s="94"/>
+      <c r="B81" s="93"/>
       <c r="C81" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D81" s="103"/>
-      <c r="E81" s="103"/>
-      <c r="F81" s="108"/>
+      <c r="D81" s="87"/>
+      <c r="E81" s="87"/>
+      <c r="F81" s="83"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="96"/>
-      <c r="B82" s="99" t="s">
+      <c r="A82" s="94"/>
+      <c r="B82" s="93" t="s">
         <v>100</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D82" s="103"/>
-      <c r="E82" s="103"/>
-      <c r="F82" s="108"/>
+      <c r="D82" s="87"/>
+      <c r="E82" s="87"/>
+      <c r="F82" s="83"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="96"/>
-      <c r="B83" s="99"/>
+      <c r="A83" s="94"/>
+      <c r="B83" s="93"/>
       <c r="C83" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D83" s="103"/>
-      <c r="E83" s="103"/>
-      <c r="F83" s="108"/>
+      <c r="D83" s="87"/>
+      <c r="E83" s="87"/>
+      <c r="F83" s="83"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="96" t="s">
+      <c r="A84" s="94" t="s">
         <v>103</v>
       </c>
       <c r="B84" s="23" t="s">
@@ -6392,62 +6210,62 @@
       <c r="C84" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D84" s="103">
+      <c r="D84" s="87">
         <v>6</v>
       </c>
-      <c r="E84" s="103"/>
-      <c r="F84" s="109" t="s">
+      <c r="E84" s="87"/>
+      <c r="F84" s="82" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="96"/>
+      <c r="A85" s="94"/>
       <c r="B85" s="23" t="s">
         <v>107</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D85" s="103"/>
-      <c r="E85" s="103"/>
-      <c r="F85" s="109"/>
+      <c r="D85" s="87"/>
+      <c r="E85" s="87"/>
+      <c r="F85" s="82"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="96"/>
+      <c r="A86" s="94"/>
       <c r="B86" s="23" t="s">
         <v>109</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="103"/>
-      <c r="E86" s="103"/>
-      <c r="F86" s="109"/>
+      <c r="D86" s="87"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="82"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="96"/>
-      <c r="B87" s="99" t="s">
+      <c r="A87" s="94"/>
+      <c r="B87" s="93" t="s">
         <v>111</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="103"/>
-      <c r="E87" s="103"/>
-      <c r="F87" s="109"/>
+      <c r="D87" s="87"/>
+      <c r="E87" s="87"/>
+      <c r="F87" s="82"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="96"/>
-      <c r="B88" s="99"/>
+      <c r="A88" s="94"/>
+      <c r="B88" s="93"/>
       <c r="C88" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="103"/>
-      <c r="E88" s="103"/>
-      <c r="F88" s="109"/>
+      <c r="D88" s="87"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="82"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="96" t="s">
+      <c r="A89" s="94" t="s">
         <v>67</v>
       </c>
       <c r="B89" s="23" t="s">
@@ -6456,205 +6274,205 @@
       <c r="C89" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D89" s="103">
+      <c r="D89" s="87">
         <v>8</v>
       </c>
-      <c r="E89" s="103"/>
-      <c r="F89" s="108" t="s">
+      <c r="E89" s="87"/>
+      <c r="F89" s="83" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="96"/>
+      <c r="A90" s="94"/>
       <c r="B90" s="23" t="s">
         <v>116</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D90" s="103"/>
-      <c r="E90" s="103"/>
-      <c r="F90" s="108"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="83"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="96"/>
-      <c r="B91" s="99" t="s">
+      <c r="A91" s="94"/>
+      <c r="B91" s="93" t="s">
         <v>72</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D91" s="103"/>
-      <c r="E91" s="103"/>
-      <c r="F91" s="108"/>
+      <c r="D91" s="87"/>
+      <c r="E91" s="87"/>
+      <c r="F91" s="83"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="96"/>
-      <c r="B92" s="99"/>
+      <c r="A92" s="94"/>
+      <c r="B92" s="93"/>
       <c r="C92" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D92" s="103"/>
-      <c r="E92" s="103"/>
-      <c r="F92" s="108"/>
+      <c r="D92" s="87"/>
+      <c r="E92" s="87"/>
+      <c r="F92" s="83"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="96"/>
-      <c r="B93" s="99"/>
+      <c r="A93" s="94"/>
+      <c r="B93" s="93"/>
       <c r="C93" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="103"/>
-      <c r="E93" s="103"/>
-      <c r="F93" s="108"/>
+      <c r="D93" s="87"/>
+      <c r="E93" s="87"/>
+      <c r="F93" s="83"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="96"/>
-      <c r="B94" s="99"/>
+      <c r="A94" s="94"/>
+      <c r="B94" s="93"/>
       <c r="C94" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="103"/>
-      <c r="E94" s="103"/>
-      <c r="F94" s="108"/>
+      <c r="D94" s="87"/>
+      <c r="E94" s="87"/>
+      <c r="F94" s="83"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="96"/>
-      <c r="B95" s="99"/>
+      <c r="A95" s="94"/>
+      <c r="B95" s="93"/>
       <c r="C95" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D95" s="103"/>
-      <c r="E95" s="103"/>
-      <c r="F95" s="108"/>
+      <c r="D95" s="87"/>
+      <c r="E95" s="87"/>
+      <c r="F95" s="83"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="96"/>
-      <c r="B96" s="99"/>
+      <c r="A96" s="94"/>
+      <c r="B96" s="93"/>
       <c r="C96" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D96" s="103"/>
-      <c r="E96" s="103"/>
-      <c r="F96" s="108"/>
+      <c r="D96" s="87"/>
+      <c r="E96" s="87"/>
+      <c r="F96" s="83"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="96"/>
-      <c r="B97" s="99" t="s">
+      <c r="A97" s="94"/>
+      <c r="B97" s="93" t="s">
         <v>80</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D97" s="103"/>
-      <c r="E97" s="103"/>
-      <c r="F97" s="108"/>
+      <c r="D97" s="87"/>
+      <c r="E97" s="87"/>
+      <c r="F97" s="83"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="96"/>
-      <c r="B98" s="99"/>
+      <c r="A98" s="94"/>
+      <c r="B98" s="93"/>
       <c r="C98" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D98" s="103"/>
-      <c r="E98" s="103"/>
-      <c r="F98" s="108"/>
+      <c r="D98" s="87"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="83"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="96"/>
-      <c r="B99" s="99" t="s">
+      <c r="A99" s="94"/>
+      <c r="B99" s="93" t="s">
         <v>123</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D99" s="103"/>
-      <c r="E99" s="103"/>
-      <c r="F99" s="108"/>
+      <c r="D99" s="87"/>
+      <c r="E99" s="87"/>
+      <c r="F99" s="83"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="96"/>
-      <c r="B100" s="99"/>
+      <c r="A100" s="94"/>
+      <c r="B100" s="93"/>
       <c r="C100" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D100" s="103"/>
-      <c r="E100" s="103"/>
-      <c r="F100" s="108"/>
+      <c r="D100" s="87"/>
+      <c r="E100" s="87"/>
+      <c r="F100" s="83"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="96"/>
-      <c r="B101" s="99" t="s">
+      <c r="A101" s="94"/>
+      <c r="B101" s="93" t="s">
         <v>124</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D101" s="103"/>
-      <c r="E101" s="103"/>
-      <c r="F101" s="108"/>
+      <c r="D101" s="87"/>
+      <c r="E101" s="87"/>
+      <c r="F101" s="83"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="96"/>
-      <c r="B102" s="99"/>
+      <c r="A102" s="94"/>
+      <c r="B102" s="93"/>
       <c r="C102" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D102" s="103"/>
-      <c r="E102" s="103"/>
-      <c r="F102" s="108"/>
+      <c r="D102" s="87"/>
+      <c r="E102" s="87"/>
+      <c r="F102" s="83"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="96"/>
-      <c r="B103" s="99"/>
+      <c r="A103" s="94"/>
+      <c r="B103" s="93"/>
       <c r="C103" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D103" s="103"/>
-      <c r="E103" s="103"/>
-      <c r="F103" s="108"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="83"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="96"/>
-      <c r="B104" s="99" t="s">
+      <c r="A104" s="94"/>
+      <c r="B104" s="93" t="s">
         <v>125</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D104" s="103"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="108"/>
+      <c r="D104" s="87"/>
+      <c r="E104" s="87"/>
+      <c r="F104" s="83"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="96"/>
-      <c r="B105" s="99"/>
+      <c r="A105" s="94"/>
+      <c r="B105" s="93"/>
       <c r="C105" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D105" s="103"/>
-      <c r="E105" s="103"/>
-      <c r="F105" s="108"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="87"/>
+      <c r="F105" s="83"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="96"/>
-      <c r="B106" s="99"/>
+      <c r="A106" s="94"/>
+      <c r="B106" s="93"/>
       <c r="C106" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D106" s="103"/>
-      <c r="E106" s="103"/>
-      <c r="F106" s="108"/>
+      <c r="D106" s="87"/>
+      <c r="E106" s="87"/>
+      <c r="F106" s="83"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="96"/>
-      <c r="B107" s="99"/>
+      <c r="A107" s="94"/>
+      <c r="B107" s="93"/>
       <c r="C107" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D107" s="103"/>
-      <c r="E107" s="103"/>
-      <c r="F107" s="108"/>
+      <c r="D107" s="87"/>
+      <c r="E107" s="87"/>
+      <c r="F107" s="83"/>
     </row>
     <row r="108" spans="1:6" ht="20.399999999999999" thickBot="1">
       <c r="A108" s="42" t="s">
@@ -6674,25 +6492,41 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="F89:F107"/>
-    <mergeCell ref="E38:E43"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="F38:F43"/>
-    <mergeCell ref="F49:F51"/>
-    <mergeCell ref="F52:F62"/>
-    <mergeCell ref="F69:F72"/>
-    <mergeCell ref="F73:F83"/>
-    <mergeCell ref="F4:F14"/>
-    <mergeCell ref="F15:F19"/>
-    <mergeCell ref="F20:F31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="E4:E14"/>
-    <mergeCell ref="E15:E19"/>
-    <mergeCell ref="E20:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A62"/>
+    <mergeCell ref="A69:A72"/>
+    <mergeCell ref="A73:A83"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="A89:A107"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="D4:D14"/>
+    <mergeCell ref="D15:D19"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D43"/>
+    <mergeCell ref="D49:D51"/>
+    <mergeCell ref="D52:D62"/>
+    <mergeCell ref="D69:D72"/>
+    <mergeCell ref="D73:D83"/>
     <mergeCell ref="D84:D88"/>
     <mergeCell ref="D89:D107"/>
     <mergeCell ref="B78:B81"/>
@@ -6709,41 +6543,25 @@
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="B73:B76"/>
     <mergeCell ref="B82:B83"/>
-    <mergeCell ref="D38:D43"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D62"/>
-    <mergeCell ref="D69:D72"/>
-    <mergeCell ref="D73:D83"/>
-    <mergeCell ref="D4:D14"/>
-    <mergeCell ref="D15:D19"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="A89:A107"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A62"/>
-    <mergeCell ref="A69:A72"/>
-    <mergeCell ref="A73:A83"/>
-    <mergeCell ref="A4:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E4:E14"/>
+    <mergeCell ref="E15:E19"/>
+    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F4:F14"/>
+    <mergeCell ref="F15:F19"/>
+    <mergeCell ref="F20:F31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="F89:F107"/>
+    <mergeCell ref="E38:E43"/>
+    <mergeCell ref="E49:E51"/>
+    <mergeCell ref="F38:F43"/>
+    <mergeCell ref="F49:F51"/>
+    <mergeCell ref="F52:F62"/>
+    <mergeCell ref="F69:F72"/>
+    <mergeCell ref="F73:F83"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6764,14 +6582,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="113" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="111" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="D1" s="112"/>
+      <c r="D1" s="102"/>
       <c r="E1" s="8"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -6783,14 +6601,14 @@
       <c r="M1" s="7"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="113" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="115">
+      <c r="B2" s="102"/>
+      <c r="C2" s="114">
         <v>45592</v>
       </c>
-      <c r="D2" s="116"/>
+      <c r="D2" s="115"/>
       <c r="E2" s="8"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -6834,25 +6652,25 @@
       <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="119" t="s">
+      <c r="A5" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="106" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="106" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="122" t="s">
+      <c r="E5" s="108"/>
+      <c r="F5" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="123"/>
+      <c r="G5" s="111"/>
+      <c r="H5" s="111"/>
+      <c r="I5" s="108"/>
       <c r="J5" s="9"/>
       <c r="K5" s="10" t="s">
         <v>140</v>
@@ -6861,15 +6679,15 @@
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="120"/>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="124"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="125"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="12"/>
       <c r="K6" s="13" t="s">
         <v>141</v>
@@ -6881,22 +6699,22 @@
       <c r="A7" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="64">
         <v>45592</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="111" t="s">
+      <c r="E7" s="117"/>
+      <c r="F7" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="112"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="102"/>
       <c r="J7" s="8"/>
       <c r="K7" s="13" t="s">
         <v>145</v>
@@ -6908,20 +6726,20 @@
       <c r="A8" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="66">
+      <c r="B8" s="64">
         <v>45596</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="D8" s="111"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="111" t="s">
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="112"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="102"/>
       <c r="J8" s="15"/>
       <c r="K8" s="13" t="s">
         <v>146</v>
@@ -6933,12 +6751,12 @@
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="112"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="102"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -6948,12 +6766,12 @@
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="112"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="112"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="102"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -6963,12 +6781,12 @@
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="112"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="112"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="102"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
@@ -6978,12 +6796,12 @@
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="112"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="102"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -6993,12 +6811,12 @@
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="112"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="102"/>
       <c r="J13" s="8"/>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -7351,6 +7169,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="A5:A6"/>
@@ -7367,13 +7192,6 @@
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:I8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7385,7 +7203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -7408,68 +7226,68 @@
       <c r="A1" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="146" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="150" t="s">
+      <c r="J2" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="153" t="s">
+      <c r="K2" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="133" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="145"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="147"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="130"/>
       <c r="G3" s="130"/>
       <c r="H3" s="130"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="147"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="130"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="145"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="50" t="s">
         <v>162</v>
       </c>
@@ -7479,23 +7297,23 @@
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="148"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="131"/>
       <c r="G4" s="131"/>
       <c r="H4" s="131"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="148"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="122"/>
       <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" ht="57.6">
       <c r="A5" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="143" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="141" t="s">
+      <c r="C5" s="143" t="s">
         <v>157</v>
       </c>
       <c r="D5" s="49" t="s">
@@ -7508,7 +7326,7 @@
         <v>186</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H5" s="49" t="s">
         <v>167</v>
@@ -7522,8 +7340,8 @@
       <c r="A6" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="142"/>
-      <c r="C6" s="142"/>
+      <c r="B6" s="144"/>
+      <c r="C6" s="144"/>
       <c r="D6" s="54" t="s">
         <v>190</v>
       </c>
@@ -7534,7 +7352,7 @@
         <v>187</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H6" s="49" t="s">
         <v>167</v>
@@ -7548,8 +7366,8 @@
       <c r="A7" s="45" t="s">
         <v>199</v>
       </c>
-      <c r="B7" s="142"/>
-      <c r="C7" s="143"/>
+      <c r="B7" s="144"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="54" t="s">
         <v>191</v>
       </c>
@@ -7560,7 +7378,7 @@
         <v>187</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H7" s="49" t="s">
         <v>166</v>
@@ -7589,7 +7407,7 @@
       <c r="F8" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="61" t="s">
         <v>219</v>
       </c>
       <c r="H8" s="53" t="s">
@@ -7604,10 +7422,10 @@
       <c r="A9" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="134" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="137" t="s">
         <v>171</v>
       </c>
       <c r="D9" s="56" t="s">
@@ -7619,8 +7437,8 @@
       <c r="F9" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="62" t="s">
-        <v>335</v>
+      <c r="G9" s="61" t="s">
+        <v>333</v>
       </c>
       <c r="H9" s="53" t="s">
         <v>158</v>
@@ -7634,19 +7452,19 @@
       <c r="A10" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="B10" s="132"/>
-      <c r="C10" s="136"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="138"/>
       <c r="D10" s="56" t="s">
         <v>220</v>
       </c>
       <c r="E10" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="F10" s="63" t="s">
+      <c r="F10" s="62" t="s">
         <v>221</v>
       </c>
-      <c r="G10" s="62" t="s">
-        <v>336</v>
+      <c r="G10" s="61" t="s">
+        <v>334</v>
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="47"/>
@@ -7658,8 +7476,8 @@
       <c r="A11" s="45" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="136"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="138"/>
       <c r="D11" s="56" t="s">
         <v>222</v>
       </c>
@@ -7669,8 +7487,8 @@
       <c r="F11" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G11" s="62" t="s">
-        <v>337</v>
+      <c r="G11" s="61" t="s">
+        <v>335</v>
       </c>
       <c r="H11" s="53" t="s">
         <v>175</v>
@@ -7684,8 +7502,8 @@
       <c r="A12" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="136"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="56" t="s">
         <v>223</v>
       </c>
@@ -7695,8 +7513,8 @@
       <c r="F12" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G12" s="62" t="s">
-        <v>338</v>
+      <c r="G12" s="61" t="s">
+        <v>336</v>
       </c>
       <c r="H12" s="53" t="s">
         <v>174</v>
@@ -7710,8 +7528,8 @@
       <c r="A13" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="B13" s="132"/>
-      <c r="C13" s="136"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="138"/>
       <c r="D13" s="56" t="s">
         <v>224</v>
       </c>
@@ -7721,8 +7539,8 @@
       <c r="F13" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G13" s="62" t="s">
-        <v>339</v>
+      <c r="G13" s="61" t="s">
+        <v>337</v>
       </c>
       <c r="H13" s="53" t="s">
         <v>178</v>
@@ -7736,8 +7554,8 @@
       <c r="A14" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="B14" s="132"/>
-      <c r="C14" s="136"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="138"/>
       <c r="D14" s="56" t="s">
         <v>225</v>
       </c>
@@ -7747,8 +7565,8 @@
       <c r="F14" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G14" s="62" t="s">
-        <v>340</v>
+      <c r="G14" s="61" t="s">
+        <v>338</v>
       </c>
       <c r="H14" s="53" t="s">
         <v>153</v>
@@ -7762,8 +7580,8 @@
       <c r="A15" s="45" t="s">
         <v>210</v>
       </c>
-      <c r="B15" s="132"/>
-      <c r="C15" s="136"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="138"/>
       <c r="D15" s="56" t="s">
         <v>226</v>
       </c>
@@ -7773,8 +7591,8 @@
       <c r="F15" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="62" t="s">
-        <v>349</v>
+      <c r="G15" s="61" t="s">
+        <v>347</v>
       </c>
       <c r="H15" s="53" t="s">
         <v>173</v>
@@ -7788,8 +7606,8 @@
       <c r="A16" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="132"/>
-      <c r="C16" s="136"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="138"/>
       <c r="D16" s="56" t="s">
         <v>231</v>
       </c>
@@ -7799,8 +7617,8 @@
       <c r="F16" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G16" s="62" t="s">
-        <v>341</v>
+      <c r="G16" s="61" t="s">
+        <v>339</v>
       </c>
       <c r="H16" s="53" t="s">
         <v>177</v>
@@ -7814,8 +7632,8 @@
       <c r="A17" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="132"/>
-      <c r="C17" s="136"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="138"/>
       <c r="D17" s="56" t="s">
         <v>232</v>
       </c>
@@ -7825,8 +7643,8 @@
       <c r="F17" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G17" s="62" t="s">
-        <v>342</v>
+      <c r="G17" s="61" t="s">
+        <v>340</v>
       </c>
       <c r="H17" s="53" t="s">
         <v>177</v>
@@ -7840,8 +7658,8 @@
       <c r="A18" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="132"/>
-      <c r="C18" s="136"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="138"/>
       <c r="D18" s="56" t="s">
         <v>234</v>
       </c>
@@ -7851,8 +7669,8 @@
       <c r="F18" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="62" t="s">
-        <v>343</v>
+      <c r="G18" s="61" t="s">
+        <v>341</v>
       </c>
       <c r="H18" s="53" t="s">
         <v>177</v>
@@ -7866,9 +7684,9 @@
       <c r="A19" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="132"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="64" t="s">
+      <c r="B19" s="134"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="63" t="s">
         <v>233</v>
       </c>
       <c r="E19" s="46" t="s">
@@ -7877,8 +7695,8 @@
       <c r="F19" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="62" t="s">
-        <v>344</v>
+      <c r="G19" s="61" t="s">
+        <v>342</v>
       </c>
       <c r="H19" s="53" t="s">
         <v>177</v>
@@ -7892,8 +7710,8 @@
       <c r="A20" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="133"/>
-      <c r="C20" s="137"/>
+      <c r="B20" s="135"/>
+      <c r="C20" s="139"/>
       <c r="D20" s="56" t="s">
         <v>235</v>
       </c>
@@ -7903,8 +7721,8 @@
       <c r="F20" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G20" s="62" t="s">
-        <v>345</v>
+      <c r="G20" s="61" t="s">
+        <v>343</v>
       </c>
       <c r="H20" s="53" t="s">
         <v>176</v>
@@ -7918,10 +7736,10 @@
       <c r="A21" s="45" t="s">
         <v>212</v>
       </c>
-      <c r="B21" s="134" t="s">
+      <c r="B21" s="136" t="s">
         <v>203</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="137" t="s">
         <v>170</v>
       </c>
       <c r="D21" s="56" t="s">
@@ -7933,8 +7751,8 @@
       <c r="F21" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="62" t="s">
-        <v>346</v>
+      <c r="G21" s="61" t="s">
+        <v>344</v>
       </c>
       <c r="H21" s="53" t="s">
         <v>158</v>
@@ -7948,8 +7766,8 @@
       <c r="A22" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="136"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="138"/>
       <c r="D22" s="56" t="s">
         <v>194</v>
       </c>
@@ -7957,8 +7775,8 @@
         <v>181</v>
       </c>
       <c r="F22" s="52"/>
-      <c r="G22" s="62" t="s">
-        <v>347</v>
+      <c r="G22" s="61" t="s">
+        <v>345</v>
       </c>
       <c r="H22" s="53" t="s">
         <v>177</v>
@@ -7972,8 +7790,8 @@
       <c r="A23" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="137"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="139"/>
       <c r="D23" s="56" t="s">
         <v>195</v>
       </c>
@@ -7983,8 +7801,8 @@
       <c r="F23" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G23" s="62" t="s">
-        <v>348</v>
+      <c r="G23" s="61" t="s">
+        <v>346</v>
       </c>
       <c r="H23" s="53" t="s">
         <v>172</v>
@@ -7998,10 +7816,10 @@
       <c r="A24" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="137" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="138" t="s">
+      <c r="C24" s="140" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="49" t="s">
@@ -8013,8 +7831,8 @@
       <c r="F24" s="52" t="s">
         <v>185</v>
       </c>
-      <c r="G24" s="62" t="s">
-        <v>350</v>
+      <c r="G24" s="61" t="s">
+        <v>348</v>
       </c>
       <c r="H24" s="53" t="s">
         <v>177</v>
@@ -8028,8 +7846,8 @@
       <c r="A25" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="B25" s="136"/>
-      <c r="C25" s="139"/>
+      <c r="B25" s="138"/>
+      <c r="C25" s="141"/>
       <c r="D25" s="49" t="s">
         <v>197</v>
       </c>
@@ -8039,8 +7857,8 @@
       <c r="F25" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G25" s="62" t="s">
-        <v>351</v>
+      <c r="G25" s="61" t="s">
+        <v>349</v>
       </c>
       <c r="H25" s="53" t="s">
         <v>177</v>
@@ -8054,8 +7872,8 @@
       <c r="A26" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="B26" s="137"/>
-      <c r="C26" s="140"/>
+      <c r="B26" s="139"/>
+      <c r="C26" s="142"/>
       <c r="D26" s="49" t="s">
         <v>198</v>
       </c>
@@ -8065,8 +7883,8 @@
       <c r="F26" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G26" s="62" t="s">
-        <v>352</v>
+      <c r="G26" s="61" t="s">
+        <v>350</v>
       </c>
       <c r="H26" s="53" t="s">
         <v>180</v>
@@ -8078,15 +7896,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="J2:J4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="B9:B20"/>
@@ -8097,6 +7906,15 @@
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <dataValidations count="1">
@@ -8111,10 +7929,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB9436-C0CC-48F8-B29D-AE82A2AEF0D3}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -8136,333 +7954,283 @@
       <c r="A1" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="132" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="146" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="150" t="s">
+      <c r="J2" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="153" t="s">
+      <c r="K2" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="133" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="145"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="147"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="130"/>
       <c r="G3" s="130"/>
       <c r="H3" s="130"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="147"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="130"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="50" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="148"/>
-      <c r="L4" s="131"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="125"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="130"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="71" t="s">
         <v>238</v>
       </c>
-      <c r="B5" s="156" t="s">
+      <c r="B5" s="148" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="163" t="s">
+      <c r="C5" s="148" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="G5" s="158" t="s">
+      <c r="G5" s="162" t="s">
         <v>247</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="53"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="69" t="s">
+      <c r="B6" s="148"/>
+      <c r="C6" s="148"/>
+      <c r="D6" s="163" t="s">
         <v>255</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="G6" s="159"/>
-      <c r="H6" s="54" t="s">
+      <c r="G6" s="162"/>
+      <c r="H6" s="163" t="s">
         <v>245</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="53"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="71" t="s">
         <v>253</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="69" t="s">
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="163" t="s">
         <v>256</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="160"/>
-      <c r="H7" s="54" t="s">
+      <c r="G7" s="162"/>
+      <c r="H7" s="163" t="s">
         <v>246</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="53"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
     </row>
     <row r="8" spans="1:12" ht="57.6">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="B8" s="156" t="s">
+      <c r="B8" s="148" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="56" t="s">
+      <c r="C8" s="148"/>
+      <c r="D8" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="F8" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="G8" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="69" t="s">
+        <v>275</v>
+      </c>
+      <c r="I8" s="72"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+    </row>
+    <row r="9" spans="1:12" ht="43.2">
+      <c r="A9" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>251</v>
+      </c>
+      <c r="H9" s="69" t="s">
         <v>276</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="53"/>
-    </row>
-    <row r="9" spans="1:12" ht="43.2">
-      <c r="A9" s="45" t="s">
-        <v>258</v>
-      </c>
-      <c r="B9" s="157"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="56" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="46" t="s">
+      <c r="I9" s="72"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+    </row>
+    <row r="10" spans="1:12" ht="43.2">
+      <c r="A10" s="71" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="164" t="s">
+        <v>241</v>
+      </c>
+      <c r="C10" s="148"/>
+      <c r="D10" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="F9" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>251</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>277</v>
-      </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="53"/>
-    </row>
-    <row r="10" spans="1:12" ht="43.2">
-      <c r="A10" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" s="162" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="163"/>
-      <c r="D10" s="56" t="s">
-        <v>261</v>
-      </c>
-      <c r="E10" s="46" t="s">
-        <v>242</v>
-      </c>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="57" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>266</v>
+      </c>
+      <c r="H10" s="69" t="s">
+        <v>274</v>
+      </c>
+      <c r="I10" s="72"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+    </row>
+    <row r="11" spans="1:12" ht="43.2">
+      <c r="A11" s="71" t="s">
+        <v>268</v>
+      </c>
+      <c r="B11" s="164"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="F11" s="73" t="s">
         <v>272</v>
       </c>
-      <c r="G10" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="53"/>
-    </row>
-    <row r="11" spans="1:12" ht="43.2">
-      <c r="A11" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="E11" s="61" t="s">
-        <v>263</v>
-      </c>
-      <c r="F11" s="74" t="s">
+      <c r="G11" s="74" t="s">
+        <v>267</v>
+      </c>
+      <c r="H11" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="G11" s="75" t="s">
-        <v>267</v>
-      </c>
-      <c r="H11" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="I11" s="76"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="78"/>
-    </row>
-    <row r="12" spans="1:12" ht="57.6">
-      <c r="A12" s="79" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="163"/>
-      <c r="D12" s="90" t="s">
-        <v>287</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="F12" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="G12" s="62" t="s">
-        <v>428</v>
-      </c>
-      <c r="H12" s="82" t="s">
-        <v>435</v>
-      </c>
-      <c r="I12" s="80"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-    </row>
-    <row r="13" spans="1:12" ht="57.6">
-      <c r="A13" s="79" t="s">
-        <v>425</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="163"/>
-      <c r="D13" s="69" t="s">
-        <v>430</v>
-      </c>
-      <c r="E13" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="F13" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="G13" s="62" t="s">
-        <v>427</v>
-      </c>
-      <c r="H13" s="82" t="s">
-        <v>434</v>
-      </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="B14" s="44"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C5:C11"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:D3"/>
@@ -8473,16 +8241,10 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C5:C13"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I5:I13" xr:uid="{61C614E4-2B0F-4C72-A76E-C363FCBAB8D0}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I5:I11" xr:uid="{61C614E4-2B0F-4C72-A76E-C363FCBAB8D0}">
       <formula1>"OK,NG,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8518,110 +8280,110 @@
       <c r="A1" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="132" t="s">
         <v>269</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="146" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="150" t="s">
+      <c r="J2" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="153" t="s">
+      <c r="K2" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="133" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="145"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="147"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="130"/>
       <c r="G3" s="130"/>
       <c r="H3" s="130"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="147"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="130"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="68" t="s">
         <v>165</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="148"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="131"/>
       <c r="G4" s="131"/>
       <c r="H4" s="131"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="148"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="122"/>
       <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" ht="28.8">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="70" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="164" t="s">
-        <v>301</v>
+      <c r="C5" s="149" t="s">
+        <v>299</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F5" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I5" s="47"/>
       <c r="J5" s="48"/>
@@ -8629,25 +8391,25 @@
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:12" ht="43.2">
-      <c r="A6" s="72" t="s">
-        <v>288</v>
-      </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
+      <c r="A6" s="70" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
       <c r="D6" s="56" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F6" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
@@ -8655,29 +8417,29 @@
       <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" ht="28.8">
-      <c r="A7" s="83" t="s">
-        <v>278</v>
-      </c>
-      <c r="B7" s="164" t="s">
+      <c r="A7" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="149" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>301</v>
-      </c>
-      <c r="D7" s="69" t="s">
-        <v>371</v>
+        <v>299</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>369</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F7" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="48"/>
@@ -8685,27 +8447,27 @@
       <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:12" ht="57.6">
-      <c r="A8" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="91" t="s">
-        <v>460</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>305</v>
+      <c r="A8" s="75" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="151"/>
+      <c r="C8" s="81" t="s">
+        <v>453</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>303</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F8" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I8" s="47"/>
       <c r="J8" s="48"/>
@@ -8713,27 +8475,27 @@
       <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:12" ht="28.8">
-      <c r="A9" s="83" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="166"/>
-      <c r="C9" s="164" t="s">
-        <v>301</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>459</v>
+      <c r="A9" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="B9" s="151"/>
+      <c r="C9" s="149" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>452</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F9" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G9" s="60" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H9" s="60" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I9" s="47"/>
       <c r="J9" s="48"/>
@@ -8741,25 +8503,25 @@
       <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12" ht="30">
-      <c r="A10" s="83" t="s">
-        <v>296</v>
-      </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="69" t="s">
-        <v>363</v>
+      <c r="A10" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="B10" s="151"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="67" t="s">
+        <v>361</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F10" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H10" s="49" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I10" s="47"/>
       <c r="J10" s="48"/>
@@ -8767,27 +8529,27 @@
       <c r="L10" s="53"/>
     </row>
     <row r="11" spans="1:12" ht="44.4">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="B11" s="151"/>
+      <c r="C11" s="81" t="s">
+        <v>453</v>
+      </c>
+      <c r="D11" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="B11" s="166"/>
-      <c r="C11" s="91" t="s">
-        <v>460</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>364</v>
-      </c>
       <c r="E11" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F11" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I11" s="47"/>
       <c r="J11" s="48"/>
@@ -8795,29 +8557,29 @@
       <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:12" ht="43.2">
-      <c r="A12" s="83" t="s">
-        <v>279</v>
-      </c>
-      <c r="B12" s="164" t="s">
+      <c r="A12" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="164" t="s">
-        <v>301</v>
-      </c>
-      <c r="D12" s="69" t="s">
-        <v>320</v>
+      <c r="C12" s="149" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>318</v>
       </c>
       <c r="E12" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F12" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G12" s="60" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H12" s="60" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I12" s="47"/>
       <c r="J12" s="48"/>
@@ -8825,25 +8587,25 @@
       <c r="L12" s="53"/>
     </row>
     <row r="13" spans="1:12" ht="43.2">
-      <c r="A13" s="83" t="s">
-        <v>429</v>
-      </c>
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="69" t="s">
-        <v>430</v>
+      <c r="A13" s="75" t="s">
+        <v>424</v>
+      </c>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="67" t="s">
+        <v>425</v>
       </c>
       <c r="E13" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="F13" s="81" t="s">
+      <c r="F13" s="73" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" s="60" t="s">
         <v>426</v>
       </c>
-      <c r="G13" s="60" t="s">
-        <v>431</v>
-      </c>
-      <c r="H13" s="82" t="s">
-        <v>432</v>
+      <c r="H13" s="74" t="s">
+        <v>427</v>
       </c>
       <c r="I13" s="47"/>
       <c r="J13" s="48"/>
@@ -8851,29 +8613,29 @@
       <c r="L13" s="53"/>
     </row>
     <row r="14" spans="1:12" ht="28.8">
-      <c r="A14" s="83" t="s">
-        <v>280</v>
+      <c r="A14" s="75" t="s">
+        <v>279</v>
       </c>
       <c r="B14" s="57" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D14" s="56" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F14" s="52" t="s">
         <v>164</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>308</v>
-      </c>
-      <c r="H14" s="62" t="s">
-        <v>309</v>
+        <v>306</v>
+      </c>
+      <c r="H14" s="61" t="s">
+        <v>307</v>
       </c>
       <c r="I14" s="47"/>
       <c r="J14" s="48"/>
@@ -8881,29 +8643,29 @@
       <c r="L14" s="53"/>
     </row>
     <row r="15" spans="1:12" ht="23.4" customHeight="1">
-      <c r="A15" s="83" t="s">
-        <v>281</v>
-      </c>
-      <c r="B15" s="79" t="s">
+      <c r="A15" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B15" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="79" t="s">
-        <v>301</v>
+      <c r="C15" s="71" t="s">
+        <v>299</v>
       </c>
       <c r="D15" s="56" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F15" s="52" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H15" s="53" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I15" s="47"/>
       <c r="J15" s="48"/>
@@ -8911,29 +8673,29 @@
       <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:12" ht="43.2">
-      <c r="A16" s="83" t="s">
-        <v>282</v>
-      </c>
-      <c r="B16" s="79" t="s">
+      <c r="A16" s="75" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="69" t="s">
+        <v>308</v>
+      </c>
+      <c r="D16" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" s="62" t="s">
         <v>310</v>
       </c>
-      <c r="D16" s="56" t="s">
-        <v>323</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="F16" s="63" t="s">
-        <v>312</v>
-      </c>
       <c r="G16" s="60" t="s">
-        <v>316</v>
-      </c>
-      <c r="H16" s="62" t="s">
-        <v>317</v>
+        <v>314</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>315</v>
       </c>
       <c r="I16" s="47"/>
       <c r="J16" s="48"/>
@@ -8941,29 +8703,29 @@
       <c r="L16" s="53"/>
     </row>
     <row r="17" spans="1:12" ht="43.2">
-      <c r="A17" s="83" t="s">
-        <v>283</v>
-      </c>
-      <c r="B17" s="79" t="s">
+      <c r="A17" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="79" t="s">
-        <v>301</v>
+      <c r="C17" s="71" t="s">
+        <v>299</v>
       </c>
       <c r="D17" s="56" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F17" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="G17" s="60" t="s">
         <v>311</v>
       </c>
-      <c r="G17" s="60" t="s">
-        <v>313</v>
-      </c>
-      <c r="H17" s="62" t="s">
-        <v>318</v>
+      <c r="H17" s="61" t="s">
+        <v>316</v>
       </c>
       <c r="I17" s="47"/>
       <c r="J17" s="48"/>
@@ -8971,29 +8733,29 @@
       <c r="L17" s="53"/>
     </row>
     <row r="18" spans="1:12" ht="28.8">
-      <c r="A18" s="83" t="s">
-        <v>284</v>
-      </c>
-      <c r="B18" s="79" t="s">
+      <c r="A18" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="B18" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="79" t="s">
-        <v>301</v>
+      <c r="C18" s="71" t="s">
+        <v>299</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F18" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G18" s="62" t="s">
-        <v>291</v>
-      </c>
-      <c r="H18" s="62" t="s">
-        <v>319</v>
+      <c r="G18" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>317</v>
       </c>
       <c r="I18" s="47"/>
       <c r="J18" s="48"/>
@@ -9001,29 +8763,29 @@
       <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12" ht="43.2">
-      <c r="A19" s="83" t="s">
-        <v>285</v>
-      </c>
-      <c r="B19" s="135" t="s">
+      <c r="A19" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B19" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="135" t="s">
-        <v>301</v>
+      <c r="C19" s="137" t="s">
+        <v>299</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F19" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G19" s="62" t="s">
-        <v>328</v>
-      </c>
-      <c r="H19" s="62" t="s">
-        <v>329</v>
+      <c r="G19" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>327</v>
       </c>
       <c r="I19" s="47"/>
       <c r="J19" s="48"/>
@@ -9031,25 +8793,25 @@
       <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12" ht="43.2">
-      <c r="A20" s="83" t="s">
-        <v>326</v>
-      </c>
-      <c r="B20" s="137"/>
-      <c r="C20" s="137"/>
+      <c r="A20" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
       <c r="D20" s="56" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>327</v>
-      </c>
-      <c r="G20" s="62" t="s">
-        <v>330</v>
+        <v>325</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>328</v>
       </c>
       <c r="H20" s="53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I20" s="47"/>
       <c r="J20" s="48"/>
@@ -9057,29 +8819,29 @@
       <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12" ht="43.2">
-      <c r="A21" s="83" t="s">
-        <v>286</v>
-      </c>
-      <c r="B21" s="79" t="s">
+      <c r="A21" s="75" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="79" t="s">
-        <v>301</v>
+      <c r="C21" s="71" t="s">
+        <v>299</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F21" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="G21" s="62" t="s">
-        <v>354</v>
-      </c>
-      <c r="H21" s="62" t="s">
-        <v>353</v>
+      <c r="G21" s="61" t="s">
+        <v>352</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>351</v>
       </c>
       <c r="I21" s="47"/>
       <c r="J21" s="48"/>
@@ -9088,14 +8850,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A2:A4"/>
@@ -9107,6 +8861,14 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <dataValidations count="1">
@@ -9149,110 +8911,110 @@
       <c r="A1" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="128" t="s">
-        <v>358</v>
-      </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
+      <c r="B1" s="132" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="146" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="150" t="s">
+      <c r="J2" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="153" t="s">
+      <c r="K2" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="133" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="145"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="147"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="130"/>
       <c r="G3" s="130"/>
       <c r="H3" s="130"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="147"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="130"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="68" t="s">
         <v>165</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="148"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="131"/>
       <c r="G4" s="131"/>
       <c r="H4" s="131"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="148"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="122"/>
       <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" ht="57.6">
       <c r="A5" s="55" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B5" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="80" t="s">
-        <v>416</v>
+      <c r="C5" s="72" t="s">
+        <v>414</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>312</v>
+        <v>287</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>310</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>415</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>367</v>
+        <v>413</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>365</v>
       </c>
       <c r="I5" s="47"/>
       <c r="J5" s="48"/>
@@ -9261,28 +9023,28 @@
     </row>
     <row r="6" spans="1:12" ht="100.8">
       <c r="A6" s="55" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B6" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6" s="60" t="s">
         <v>417</v>
       </c>
-      <c r="D6" s="56" t="s">
-        <v>412</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>413</v>
-      </c>
-      <c r="F6" s="52" t="s">
-        <v>414</v>
-      </c>
-      <c r="G6" s="60" t="s">
-        <v>419</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>422</v>
+      <c r="H6" s="61" t="s">
+        <v>420</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
@@ -9291,28 +9053,28 @@
     </row>
     <row r="7" spans="1:12" ht="86.4">
       <c r="A7" s="55" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="57" t="s">
+        <v>419</v>
+      </c>
+      <c r="D7" s="56" t="s">
+        <v>418</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>422</v>
+      </c>
+      <c r="G7" s="61" t="s">
         <v>421</v>
       </c>
-      <c r="D7" s="56" t="s">
-        <v>420</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>413</v>
-      </c>
-      <c r="F7" s="63" t="s">
-        <v>424</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>423</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>490</v>
+      <c r="H7" s="61" t="s">
+        <v>483</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="48"/>
@@ -9321,12 +9083,12 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="55"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="56"/>
       <c r="E8" s="46"/>
       <c r="F8" s="52"/>
-      <c r="G8" s="62"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="53"/>
       <c r="I8" s="47"/>
       <c r="J8" s="48"/>
@@ -9385,110 +9147,110 @@
       <c r="A1" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="128" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
+      <c r="B1" s="132" t="s">
+        <v>366</v>
+      </c>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="146" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="150" t="s">
+      <c r="J2" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="153" t="s">
+      <c r="K2" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="133" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="145"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="147"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="130"/>
       <c r="G3" s="130"/>
       <c r="H3" s="130"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="147"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="130"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="68" t="s">
         <v>165</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="148"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="131"/>
       <c r="G4" s="131"/>
       <c r="H4" s="131"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="148"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="122"/>
       <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" ht="72">
       <c r="A5" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="B5" s="164" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="164" t="s">
-        <v>370</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>437</v>
+      <c r="C5" s="149" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>430</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>375</v>
+        <v>287</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>373</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>440</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>376</v>
+        <v>433</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>374</v>
       </c>
       <c r="I5" s="47"/>
       <c r="J5" s="48"/>
@@ -9497,24 +9259,24 @@
     </row>
     <row r="6" spans="1:12" ht="100.8">
       <c r="A6" s="55" t="s">
-        <v>436</v>
-      </c>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
+        <v>429</v>
+      </c>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
       <c r="D6" s="56" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>441</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>442</v>
+        <v>434</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>435</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
@@ -9574,110 +9336,110 @@
       <c r="A1" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="132" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="146" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="150" t="s">
+      <c r="J2" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="153" t="s">
+      <c r="K2" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="133" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="145"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="147"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="130"/>
       <c r="G3" s="130"/>
       <c r="H3" s="130"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="147"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="130"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="68" t="s">
         <v>165</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="148"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="131"/>
       <c r="G4" s="131"/>
       <c r="H4" s="131"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="148"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="122"/>
       <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" ht="28.8">
       <c r="A5" s="55" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B5" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="164" t="s">
+      <c r="C5" s="149" t="s">
         <v>169</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="F5" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="F5" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G5" s="60" t="s">
-        <v>382</v>
-      </c>
-      <c r="H5" s="62" t="s">
-        <v>383</v>
+        <v>380</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>381</v>
       </c>
       <c r="I5" s="47"/>
       <c r="J5" s="48"/>
@@ -9685,27 +9447,27 @@
       <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:12" ht="43.2">
-      <c r="A6" s="86" t="s">
-        <v>378</v>
-      </c>
-      <c r="B6" s="164" t="s">
+      <c r="A6" s="78" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="165"/>
+      <c r="C6" s="150"/>
       <c r="D6" s="56" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="F6" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="F6" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G6" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>384</v>
+        <v>383</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>382</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
@@ -9713,27 +9475,27 @@
       <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12" ht="57.6">
-      <c r="A7" s="86" t="s">
-        <v>445</v>
-      </c>
-      <c r="B7" s="165"/>
+      <c r="A7" s="78" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="150"/>
       <c r="C7" s="57" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D7" s="56" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="F7" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="F7" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G7" s="60" t="s">
-        <v>449</v>
-      </c>
-      <c r="H7" s="62" t="s">
-        <v>450</v>
+        <v>442</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>443</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="48"/>
@@ -9741,29 +9503,29 @@
       <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:12" ht="43.2">
-      <c r="A8" s="79" t="s">
-        <v>379</v>
-      </c>
-      <c r="B8" s="164" t="s">
+      <c r="A8" s="71" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="69" t="s">
-        <v>409</v>
+      <c r="D8" s="67" t="s">
+        <v>407</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="F8" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="F8" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="I8" s="47"/>
       <c r="J8" s="48"/>
@@ -9771,27 +9533,27 @@
       <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:12" ht="57.6">
-      <c r="A9" s="79" t="s">
-        <v>452</v>
-      </c>
-      <c r="B9" s="165"/>
+      <c r="A9" s="71" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" s="150"/>
       <c r="C9" s="57" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="D9" s="56" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E9" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="60" t="s">
         <v>448</v>
       </c>
-      <c r="F9" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="G9" s="60" t="s">
-        <v>455</v>
-      </c>
-      <c r="H9" s="62" t="s">
-        <v>450</v>
+      <c r="H9" s="61" t="s">
+        <v>443</v>
       </c>
       <c r="I9" s="47"/>
       <c r="J9" s="48"/>
@@ -9799,29 +9561,29 @@
       <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12" ht="43.2">
-      <c r="A10" s="79" t="s">
-        <v>380</v>
+      <c r="A10" s="71" t="s">
+        <v>378</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="164" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="149" t="s">
         <v>169</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E10" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="F10" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="F10" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I10" s="47"/>
       <c r="J10" s="48"/>
@@ -9829,27 +9591,27 @@
       <c r="L10" s="53"/>
     </row>
     <row r="11" spans="1:12" ht="57.6">
-      <c r="A11" s="79" t="s">
-        <v>381</v>
-      </c>
-      <c r="B11" s="79" t="s">
-        <v>370</v>
-      </c>
-      <c r="C11" s="165"/>
+      <c r="A11" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="B11" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="150"/>
       <c r="D11" s="56" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E11" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="F11" s="63" t="s">
+        <v>441</v>
+      </c>
+      <c r="F11" s="62" t="s">
         <v>164</v>
       </c>
       <c r="G11" s="60" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H11" s="53" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="I11" s="47"/>
       <c r="J11" s="48"/>
@@ -9857,29 +9619,29 @@
       <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:12" ht="72">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>437</v>
+      </c>
+      <c r="C12" s="79" t="s">
+        <v>439</v>
+      </c>
+      <c r="D12" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="F12" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="H12" s="61" t="s">
         <v>443</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>444</v>
-      </c>
-      <c r="C12" s="87" t="s">
-        <v>446</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>451</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>448</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="G12" s="60" t="s">
-        <v>454</v>
-      </c>
-      <c r="H12" s="62" t="s">
-        <v>450</v>
       </c>
       <c r="I12" s="47"/>
       <c r="J12" s="48"/>
@@ -9888,11 +9650,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="L2:L4"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:D3"/>
@@ -9903,6 +9660,11 @@
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="L2:L4"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <dataValidations count="1">
@@ -9942,109 +9704,109 @@
       <c r="A1" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="128" t="s">
-        <v>391</v>
-      </c>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
+      <c r="B1" s="132" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="144" t="s">
+      <c r="A2" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="146" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="120" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="129" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="155" t="s">
+      <c r="H2" s="129" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="150" t="s">
+      <c r="J2" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="K2" s="153" t="s">
+      <c r="K2" s="127" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="129" t="s">
+      <c r="L2" s="133" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="145"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="147"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="121"/>
       <c r="F3" s="130"/>
       <c r="G3" s="130"/>
       <c r="H3" s="130"/>
-      <c r="I3" s="149"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="147"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="121"/>
       <c r="L3" s="130"/>
     </row>
     <row r="4" spans="1:12" ht="25.95" customHeight="1">
-      <c r="A4" s="145"/>
-      <c r="B4" s="70" t="s">
+      <c r="A4" s="119"/>
+      <c r="B4" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="68" t="s">
         <v>165</v>
       </c>
       <c r="D4" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="148"/>
+      <c r="E4" s="122"/>
       <c r="F4" s="131"/>
       <c r="G4" s="131"/>
       <c r="H4" s="131"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="148"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="122"/>
       <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" ht="28.8">
       <c r="A5" s="55" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5" s="149" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="149" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>397</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>287</v>
+      </c>
+      <c r="F5" s="146" t="s">
+        <v>400</v>
+      </c>
+      <c r="G5" s="60" t="s">
         <v>392</v>
       </c>
-      <c r="B5" s="164" t="s">
-        <v>393</v>
-      </c>
-      <c r="C5" s="164" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>399</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="F5" s="158" t="s">
-        <v>402</v>
-      </c>
-      <c r="G5" s="60" t="s">
-        <v>394</v>
-      </c>
-      <c r="H5" s="62" t="str">
+      <c r="H5" s="61" t="str">
         <f>C5&amp;"画面が日本語で表示されること"</f>
         <v>ログイン画面が日本語で表示されること</v>
       </c>
@@ -10055,22 +9817,22 @@
     </row>
     <row r="6" spans="1:12" ht="28.8">
       <c r="A6" s="55" t="s">
-        <v>397</v>
-      </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
+        <v>395</v>
+      </c>
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
       <c r="D6" s="56" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="F6" s="159"/>
+        <v>287</v>
+      </c>
+      <c r="F6" s="147"/>
       <c r="G6" s="60" t="s">
-        <v>395</v>
-      </c>
-      <c r="H6" s="62" t="s">
-        <v>488</v>
+        <v>393</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>481</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="48"/>
@@ -10079,22 +9841,22 @@
     </row>
     <row r="7" spans="1:12" ht="43.2">
       <c r="A7" s="55" t="s">
-        <v>398</v>
-      </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="69" t="s">
-        <v>401</v>
+        <v>396</v>
+      </c>
+      <c r="B7" s="150"/>
+      <c r="C7" s="150"/>
+      <c r="D7" s="67" t="s">
+        <v>399</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>289</v>
-      </c>
-      <c r="F7" s="175"/>
+        <v>287</v>
+      </c>
+      <c r="F7" s="152"/>
       <c r="G7" s="60" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="48"/>
@@ -10103,25 +9865,25 @@
     </row>
     <row r="8" spans="1:12" ht="43.2" customHeight="1">
       <c r="A8" s="55" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" s="153" t="s">
+        <v>464</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="154" t="s">
+        <v>478</v>
+      </c>
+      <c r="E8" s="155" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="153" t="s">
+        <v>404</v>
+      </c>
+      <c r="G8" s="158" t="s">
         <v>403</v>
-      </c>
-      <c r="B8" s="167" t="s">
-        <v>471</v>
-      </c>
-      <c r="C8" s="88" t="s">
-        <v>236</v>
-      </c>
-      <c r="D8" s="173" t="s">
-        <v>485</v>
-      </c>
-      <c r="E8" s="174" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" s="167" t="s">
-        <v>406</v>
-      </c>
-      <c r="G8" s="170" t="s">
-        <v>405</v>
       </c>
       <c r="H8" s="49" t="str">
         <f>C8&amp;"画面が日本語で表示されること"</f>
@@ -10134,16 +9896,16 @@
     </row>
     <row r="9" spans="1:12" ht="43.2" customHeight="1">
       <c r="A9" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="B9" s="166"/>
+        <v>402</v>
+      </c>
+      <c r="B9" s="151"/>
       <c r="C9" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="171"/>
+        <v>450</v>
+      </c>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="159"/>
       <c r="H9" s="49" t="str">
         <f t="shared" ref="H9:H18" si="0">C9&amp;"画面が日本語で表示されること"</f>
         <v>店舗詳細画面が日本語で表示されること</v>
@@ -10155,16 +9917,16 @@
     </row>
     <row r="10" spans="1:12" ht="28.8" customHeight="1">
       <c r="A10" s="55" t="s">
-        <v>462</v>
-      </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="91" t="s">
-        <v>460</v>
-      </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="171"/>
+        <v>455</v>
+      </c>
+      <c r="B10" s="151"/>
+      <c r="C10" s="81" t="s">
+        <v>453</v>
+      </c>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="159"/>
       <c r="H10" s="49" t="str">
         <f t="shared" si="0"/>
         <v>全て口コミ画面が日本語で表示されること</v>
@@ -10176,16 +9938,16 @@
     </row>
     <row r="11" spans="1:12" ht="28.8" customHeight="1">
       <c r="A11" s="55" t="s">
-        <v>463</v>
-      </c>
-      <c r="B11" s="166"/>
-      <c r="C11" s="79" t="s">
-        <v>310</v>
-      </c>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="171"/>
+        <v>456</v>
+      </c>
+      <c r="B11" s="151"/>
+      <c r="C11" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="159"/>
       <c r="H11" s="49" t="str">
         <f t="shared" si="0"/>
         <v>未使用のクーポン画面が日本語で表示されること</v>
@@ -10197,16 +9959,16 @@
     </row>
     <row r="12" spans="1:12" ht="28.8" customHeight="1">
       <c r="A12" s="55" t="s">
-        <v>464</v>
-      </c>
-      <c r="B12" s="166"/>
+        <v>457</v>
+      </c>
+      <c r="B12" s="151"/>
       <c r="C12" s="57" t="s">
-        <v>416</v>
-      </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="171"/>
+        <v>414</v>
+      </c>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="159"/>
       <c r="H12" s="49" t="str">
         <f t="shared" si="0"/>
         <v>クーポン(使用待ち)画面が日本語で表示されること</v>
@@ -10218,16 +9980,16 @@
     </row>
     <row r="13" spans="1:12" ht="28.8" customHeight="1">
       <c r="A13" s="55" t="s">
-        <v>465</v>
-      </c>
-      <c r="B13" s="166"/>
+        <v>458</v>
+      </c>
+      <c r="B13" s="151"/>
       <c r="C13" s="57" t="s">
-        <v>417</v>
-      </c>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="171"/>
+        <v>415</v>
+      </c>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="159"/>
       <c r="H13" s="49" t="str">
         <f t="shared" si="0"/>
         <v>クーポン(全部)画面が日本語で表示されること</v>
@@ -10239,16 +10001,16 @@
     </row>
     <row r="14" spans="1:12" ht="28.8" customHeight="1">
       <c r="A14" s="55" t="s">
-        <v>466</v>
-      </c>
-      <c r="B14" s="166"/>
+        <v>459</v>
+      </c>
+      <c r="B14" s="151"/>
       <c r="C14" s="57" t="s">
-        <v>461</v>
-      </c>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="171"/>
+        <v>454</v>
+      </c>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="159"/>
       <c r="H14" s="49" t="str">
         <f t="shared" si="0"/>
         <v>ブックマークリスト画面が日本語で表示されること</v>
@@ -10260,16 +10022,16 @@
     </row>
     <row r="15" spans="1:12" ht="28.8" customHeight="1">
       <c r="A15" s="55" t="s">
-        <v>467</v>
-      </c>
-      <c r="B15" s="166"/>
+        <v>460</v>
+      </c>
+      <c r="B15" s="151"/>
       <c r="C15" s="57" t="s">
-        <v>458</v>
-      </c>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="171"/>
+        <v>451</v>
+      </c>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="159"/>
       <c r="H15" s="49" t="str">
         <f t="shared" si="0"/>
         <v>マイページ画面が日本語で表示されること</v>
@@ -10281,16 +10043,16 @@
     </row>
     <row r="16" spans="1:12" ht="28.8" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>468</v>
-      </c>
-      <c r="B16" s="166"/>
+        <v>461</v>
+      </c>
+      <c r="B16" s="151"/>
       <c r="C16" s="57" t="s">
-        <v>447</v>
-      </c>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="171"/>
+        <v>440</v>
+      </c>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="159"/>
       <c r="H16" s="49" t="str">
         <f t="shared" si="0"/>
         <v>個人情報設定画面が日本語で表示されること</v>
@@ -10302,16 +10064,16 @@
     </row>
     <row r="17" spans="1:12" ht="28.8" customHeight="1">
       <c r="A17" s="55" t="s">
-        <v>469</v>
-      </c>
-      <c r="B17" s="166"/>
+        <v>462</v>
+      </c>
+      <c r="B17" s="151"/>
       <c r="C17" s="57" t="s">
-        <v>453</v>
-      </c>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="171"/>
+        <v>446</v>
+      </c>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="159"/>
       <c r="H17" s="49" t="str">
         <f t="shared" si="0"/>
         <v>My口コミ画面が日本語で表示されること</v>
@@ -10323,16 +10085,16 @@
     </row>
     <row r="18" spans="1:12" ht="28.8" customHeight="1">
       <c r="A18" s="55" t="s">
-        <v>470</v>
-      </c>
-      <c r="B18" s="165"/>
+        <v>463</v>
+      </c>
+      <c r="B18" s="150"/>
       <c r="C18" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="172"/>
+        <v>439</v>
+      </c>
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="160"/>
       <c r="H18" s="49" t="str">
         <f t="shared" si="0"/>
         <v>パスワード初期化画面が日本語で表示されること</v>
@@ -10344,25 +10106,25 @@
     </row>
     <row r="19" spans="1:12" ht="23.4" customHeight="1">
       <c r="A19" s="55" t="s">
-        <v>472</v>
-      </c>
-      <c r="B19" s="167" t="s">
-        <v>483</v>
-      </c>
-      <c r="C19" s="88" t="s">
+        <v>465</v>
+      </c>
+      <c r="B19" s="153" t="s">
+        <v>476</v>
+      </c>
+      <c r="C19" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="D19" s="173" t="s">
-        <v>484</v>
-      </c>
-      <c r="E19" s="174" t="s">
-        <v>289</v>
-      </c>
-      <c r="F19" s="167" t="s">
-        <v>487</v>
-      </c>
-      <c r="G19" s="170" t="s">
-        <v>486</v>
+      <c r="D19" s="154" t="s">
+        <v>477</v>
+      </c>
+      <c r="E19" s="155" t="s">
+        <v>287</v>
+      </c>
+      <c r="F19" s="153" t="s">
+        <v>480</v>
+      </c>
+      <c r="G19" s="158" t="s">
+        <v>479</v>
       </c>
       <c r="H19" s="49" t="str">
         <f>C19&amp;"画面が中国語で表示されること"</f>
@@ -10375,16 +10137,16 @@
     </row>
     <row r="20" spans="1:12" ht="23.4" customHeight="1">
       <c r="A20" s="55" t="s">
-        <v>473</v>
-      </c>
-      <c r="B20" s="166"/>
+        <v>466</v>
+      </c>
+      <c r="B20" s="151"/>
       <c r="C20" s="57" t="s">
-        <v>457</v>
-      </c>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="171"/>
+        <v>450</v>
+      </c>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="159"/>
       <c r="H20" s="49" t="str">
         <f t="shared" ref="H20:H29" si="1">C20&amp;"画面が中国語で表示されること"</f>
         <v>店舗詳細画面が中国語で表示されること</v>
@@ -10396,16 +10158,16 @@
     </row>
     <row r="21" spans="1:12" ht="23.4" customHeight="1">
       <c r="A21" s="55" t="s">
-        <v>474</v>
-      </c>
-      <c r="B21" s="166"/>
-      <c r="C21" s="91" t="s">
-        <v>460</v>
-      </c>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="171"/>
+        <v>467</v>
+      </c>
+      <c r="B21" s="151"/>
+      <c r="C21" s="81" t="s">
+        <v>453</v>
+      </c>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="159"/>
       <c r="H21" s="49" t="str">
         <f t="shared" si="1"/>
         <v>全て口コミ画面が中国語で表示されること</v>
@@ -10417,16 +10179,16 @@
     </row>
     <row r="22" spans="1:12" ht="23.4" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>475</v>
-      </c>
-      <c r="B22" s="166"/>
-      <c r="C22" s="79" t="s">
-        <v>310</v>
-      </c>
-      <c r="D22" s="166"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="171"/>
+        <v>468</v>
+      </c>
+      <c r="B22" s="151"/>
+      <c r="C22" s="71" t="s">
+        <v>308</v>
+      </c>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="159"/>
       <c r="H22" s="49" t="str">
         <f t="shared" si="1"/>
         <v>未使用のクーポン画面が中国語で表示されること</v>
@@ -10438,16 +10200,16 @@
     </row>
     <row r="23" spans="1:12" ht="23.4" customHeight="1">
       <c r="A23" s="55" t="s">
-        <v>476</v>
-      </c>
-      <c r="B23" s="166"/>
+        <v>469</v>
+      </c>
+      <c r="B23" s="151"/>
       <c r="C23" s="57" t="s">
-        <v>416</v>
-      </c>
-      <c r="D23" s="166"/>
-      <c r="E23" s="166"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="171"/>
+        <v>414</v>
+      </c>
+      <c r="D23" s="151"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="159"/>
       <c r="H23" s="49" t="str">
         <f t="shared" si="1"/>
         <v>クーポン(使用待ち)画面が中国語で表示されること</v>
@@ -10459,16 +10221,16 @@
     </row>
     <row r="24" spans="1:12" ht="23.4" customHeight="1">
       <c r="A24" s="55" t="s">
-        <v>477</v>
-      </c>
-      <c r="B24" s="166"/>
+        <v>470</v>
+      </c>
+      <c r="B24" s="151"/>
       <c r="C24" s="57" t="s">
-        <v>417</v>
-      </c>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="171"/>
+        <v>415</v>
+      </c>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="159"/>
       <c r="H24" s="49" t="str">
         <f t="shared" si="1"/>
         <v>クーポン(全部)画面が中国語で表示されること</v>
@@ -10480,16 +10242,16 @@
     </row>
     <row r="25" spans="1:12" ht="23.4" customHeight="1">
       <c r="A25" s="55" t="s">
-        <v>478</v>
-      </c>
-      <c r="B25" s="166"/>
+        <v>471</v>
+      </c>
+      <c r="B25" s="151"/>
       <c r="C25" s="57" t="s">
-        <v>461</v>
-      </c>
-      <c r="D25" s="166"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="171"/>
+        <v>454</v>
+      </c>
+      <c r="D25" s="151"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="159"/>
       <c r="H25" s="49" t="str">
         <f t="shared" si="1"/>
         <v>ブックマークリスト画面が中国語で表示されること</v>
@@ -10501,16 +10263,16 @@
     </row>
     <row r="26" spans="1:12" ht="23.4" customHeight="1">
       <c r="A26" s="55" t="s">
-        <v>479</v>
-      </c>
-      <c r="B26" s="166"/>
+        <v>472</v>
+      </c>
+      <c r="B26" s="151"/>
       <c r="C26" s="57" t="s">
-        <v>458</v>
-      </c>
-      <c r="D26" s="166"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="171"/>
+        <v>451</v>
+      </c>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="159"/>
       <c r="H26" s="49" t="str">
         <f t="shared" si="1"/>
         <v>マイページ画面が中国語で表示されること</v>
@@ -10522,16 +10284,16 @@
     </row>
     <row r="27" spans="1:12" ht="23.4" customHeight="1">
       <c r="A27" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="B27" s="166"/>
+        <v>473</v>
+      </c>
+      <c r="B27" s="151"/>
       <c r="C27" s="57" t="s">
-        <v>447</v>
-      </c>
-      <c r="D27" s="166"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="171"/>
+        <v>440</v>
+      </c>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="159"/>
       <c r="H27" s="49" t="str">
         <f t="shared" si="1"/>
         <v>個人情報設定画面が中国語で表示されること</v>
@@ -10543,16 +10305,16 @@
     </row>
     <row r="28" spans="1:12" ht="23.4" customHeight="1">
       <c r="A28" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="B28" s="166"/>
+        <v>474</v>
+      </c>
+      <c r="B28" s="151"/>
       <c r="C28" s="57" t="s">
-        <v>453</v>
-      </c>
-      <c r="D28" s="166"/>
-      <c r="E28" s="166"/>
-      <c r="F28" s="168"/>
-      <c r="G28" s="171"/>
+        <v>446</v>
+      </c>
+      <c r="D28" s="151"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="159"/>
       <c r="H28" s="49" t="str">
         <f t="shared" si="1"/>
         <v>My口コミ画面が中国語で表示されること</v>
@@ -10564,16 +10326,16 @@
     </row>
     <row r="29" spans="1:12" ht="23.4" customHeight="1">
       <c r="A29" s="55" t="s">
-        <v>482</v>
-      </c>
-      <c r="B29" s="165"/>
+        <v>475</v>
+      </c>
+      <c r="B29" s="150"/>
       <c r="C29" s="57" t="s">
-        <v>446</v>
-      </c>
-      <c r="D29" s="165"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="172"/>
+        <v>439</v>
+      </c>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="160"/>
       <c r="H29" s="49" t="str">
         <f t="shared" si="1"/>
         <v>パスワード初期化画面が中国語で表示されること</v>
@@ -10589,8 +10351,8 @@
       <c r="C30" s="57"/>
       <c r="D30" s="57"/>
       <c r="E30" s="57"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="64"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="63"/>
       <c r="H30" s="49"/>
       <c r="I30" s="47"/>
       <c r="J30" s="48"/>
@@ -10603,6 +10365,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F8:F18"/>
+    <mergeCell ref="G8:G18"/>
+    <mergeCell ref="G19:G29"/>
+    <mergeCell ref="D19:D29"/>
+    <mergeCell ref="E19:E29"/>
+    <mergeCell ref="F19:F29"/>
+    <mergeCell ref="B8:B18"/>
+    <mergeCell ref="D8:D18"/>
+    <mergeCell ref="E8:E18"/>
+    <mergeCell ref="B19:B29"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A2:A4"/>
@@ -10615,18 +10389,6 @@
     <mergeCell ref="J2:J4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
-    <mergeCell ref="B8:B18"/>
-    <mergeCell ref="D8:D18"/>
-    <mergeCell ref="E8:E18"/>
-    <mergeCell ref="B19:B29"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="F8:F18"/>
-    <mergeCell ref="G8:G18"/>
-    <mergeCell ref="G19:G29"/>
-    <mergeCell ref="D19:D29"/>
-    <mergeCell ref="E19:E29"/>
-    <mergeCell ref="F19:F29"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
   <dataValidations count="1">
